--- a/analysis/4.1.2/a/ori.xlsx
+++ b/analysis/4.1.2/a/ori.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>KP</t>
   </si>
@@ -54,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -73,17 +73,21 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1313,16 +1317,16 @@
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>

--- a/analysis/4.1.2/a/ori.xlsx
+++ b/analysis/4.1.2/a/ori.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="4">
   <si>
     <t>KP</t>
   </si>
@@ -54,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -75,11 +75,25 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -88,6 +102,20 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1317,16 +1345,16 @@
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
     </row>

--- a/analysis/4.1.2/a/ori.xlsx
+++ b/analysis/4.1.2/a/ori.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="4">
   <si>
     <t>KP</t>
   </si>
@@ -54,7 +54,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -89,11 +89,39 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -116,6 +144,34 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="46" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="48" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="49" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1330,7 +1386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="B4" sqref="A4:B4"/>
@@ -1345,16 +1401,16 @@
   </cols>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1369,7 +1425,7 @@
         <v>0.01</v>
       </c>
       <c r="D2">
-        <v>184.39568000000199</v>
+        <v>129.28044000000179</v>
       </c>
     </row>
     <row r="3" x14ac:dyDescent="0.2">
@@ -1383,7 +1439,40 @@
         <v>0.01</v>
       </c>
       <c r="D3">
-        <v>183.1538400000012</v>
+        <v>48.491422222223733</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>250.09999999999999</v>
+      </c>
+      <c r="B4">
+        <v>300.10000000000002</v>
+      </c>
+      <c r="C4">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>300.10000000000002</v>
+      </c>
+      <c r="B5">
+        <v>250.09999999999999</v>
+      </c>
+      <c r="C5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>300.10000000000002</v>
+      </c>
+      <c r="B6">
+        <v>300.10000000000002</v>
+      </c>
+      <c r="C6">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/4.1.2/a/ori.xlsx
+++ b/analysis/4.1.2/a/ori.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>KP</t>
   </si>
@@ -47,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -57,54 +57,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -119,21 +79,21 @@
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="true"/>
     <col min="2" max="2" width="3.7109375" customWidth="true"/>
-    <col min="3" max="3" width="6.7109375" customWidth="true"/>
+    <col min="3" max="3" width="6.5703125" customWidth="true"/>
     <col min="4" max="4" width="13.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -145,7 +105,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="C2">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D2">
         <v>231.56273333333291</v>
@@ -159,7 +119,7 @@
         <v>0.10000000000000001</v>
       </c>
       <c r="C3">
-        <v>150.00999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="D3">
         <v>198.49142222222372</v>

--- a/analysis/4.1.2/a/ori.xlsx
+++ b/analysis/4.1.2/a/ori.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>KP</t>
   </si>
@@ -47,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -57,14 +57,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -84,16 +88,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
